--- a/data/trans_dic/DCD-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.05602202978679735</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.08672315483679867</v>
+        <v>0.08672315483679865</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.1082641858326094</v>
@@ -655,7 +655,7 @@
         <v>0.07767506535502149</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2022715041068396</v>
+        <v>0.2022715041068395</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.0717758435371742</v>
@@ -664,7 +664,7 @@
         <v>0.06570420731134494</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1410383504327937</v>
+        <v>0.1410383504327936</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03001050114968758</v>
+        <v>0.02933408794287228</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03674514803494768</v>
+        <v>0.03737618054962336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06709685367626103</v>
+        <v>0.06640757017424927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07471815929208049</v>
+        <v>0.07879493808521829</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05183131999233332</v>
+        <v>0.05222420730642232</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.171751708800252</v>
+        <v>0.1719702107075543</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05537757090466108</v>
+        <v>0.053085237964582</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04973924228670164</v>
+        <v>0.04918017471474342</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1226953195232069</v>
+        <v>0.1196671399171403</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0689877718405478</v>
+        <v>0.0708249106170699</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0813758357295509</v>
+        <v>0.08484998558380553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1118723390405708</v>
+        <v>0.1129504935410886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1499934557058475</v>
+        <v>0.1557380849335121</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1135052715279884</v>
+        <v>0.1123276390378806</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2378563862371993</v>
+        <v>0.2355134799659236</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09394649308668189</v>
+        <v>0.09253621132982014</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08598426777924101</v>
+        <v>0.08545230505108159</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1624915732897324</v>
+        <v>0.1616387602213775</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.0463416418905756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.098843135238185</v>
+        <v>0.09884313523818497</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.1298817855801846</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03124608449046816</v>
+        <v>0.03272201188068856</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02727110717089361</v>
+        <v>0.02766298857494817</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07520122620810069</v>
+        <v>0.07451254083166109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09084063705905274</v>
+        <v>0.09382234229367237</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07536439786787584</v>
+        <v>0.07484517428597053</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2026959452566845</v>
+        <v>0.199055289499015</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06576246590077818</v>
+        <v>0.06551059484794619</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05516090243640701</v>
+        <v>0.05816354559498513</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1401181059682626</v>
+        <v>0.1409721878627543</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07759798752082574</v>
+        <v>0.07922611366645851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07651667122581292</v>
+        <v>0.0754459391287097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1267561853030885</v>
+        <v>0.1267032616333593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1660606887293122</v>
+        <v>0.1741354335632625</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1414698424854494</v>
+        <v>0.143769006573611</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2723968703282129</v>
+        <v>0.2744442824387757</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1098220460121258</v>
+        <v>0.1113528834361505</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09643040684567865</v>
+        <v>0.0987624533502061</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1846381031509419</v>
+        <v>0.1846134554328298</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.06830606490193124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1410194691849624</v>
+        <v>0.1410194691849623</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1329122363382201</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06416884641003444</v>
+        <v>0.06209225688959651</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04815752498644828</v>
+        <v>0.04787656919521701</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1138976354936096</v>
+        <v>0.1109884829480706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09349389970749183</v>
+        <v>0.09840123035103236</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1315657147743096</v>
+        <v>0.1317518356717516</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2637120054213124</v>
+        <v>0.2690527934070618</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07960847911289345</v>
+        <v>0.07946846233612163</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07464711746561739</v>
+        <v>0.07633458820158487</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1675853206158134</v>
+        <v>0.1642934447109323</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1113809226109289</v>
+        <v>0.1117176582805448</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09188065171145647</v>
+        <v>0.0916863106553918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1769406090866393</v>
+        <v>0.174330890643877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1816172324173919</v>
+        <v>0.1808258734718924</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2580892788784542</v>
+        <v>0.256329235041485</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3774291615396093</v>
+        <v>0.3830338031203052</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1227194351811664</v>
+        <v>0.1226369769239085</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1205673897200846</v>
+        <v>0.1227786841739561</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2229442747089538</v>
+        <v>0.2197921261541734</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06927313761086944</v>
+        <v>0.06889213660425085</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06041513406306727</v>
+        <v>0.06089785923654929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1369977474288463</v>
+        <v>0.1391684781731909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1103961572023071</v>
+        <v>0.1132649693258463</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09307727423999591</v>
+        <v>0.09398532944107379</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2170443916060978</v>
+        <v>0.2153654789335163</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09161727096913534</v>
+        <v>0.09194291265870001</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07922770282899486</v>
+        <v>0.07925781901030539</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1796164038896406</v>
+        <v>0.179031182858252</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1024755472974025</v>
+        <v>0.1026972272386135</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09099106603261523</v>
+        <v>0.09178225972025646</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1809900122982413</v>
+        <v>0.1817089500007485</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1630069864988907</v>
+        <v>0.1645581495410926</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1387382529112118</v>
+        <v>0.1417664803539329</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2674995456873929</v>
+        <v>0.2679452840264813</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1201315262064361</v>
+        <v>0.1196187368789446</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1048590891225161</v>
+        <v>0.104900417575966</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2139576446700148</v>
+        <v>0.2118901027800456</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04601973574052867</v>
+        <v>0.04604828347228129</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07814571172603353</v>
+        <v>0.07845906088066042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1345635351566714</v>
+        <v>0.132225910883114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1768750514441269</v>
+        <v>0.1784808629468625</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1476932149791277</v>
+        <v>0.1458534757573732</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3122125102269661</v>
+        <v>0.3130450695316213</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1298148134661098</v>
+        <v>0.1326958969840392</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1205908827744211</v>
+        <v>0.12170055560022</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2484856994010742</v>
+        <v>0.2505676336526297</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09234107465747793</v>
+        <v>0.09266246396866454</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1277812393495786</v>
+        <v>0.1281244114667395</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1953230319622453</v>
+        <v>0.1932491880673309</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2364521007202946</v>
+        <v>0.2394391893742368</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2015533311839171</v>
+        <v>0.202420088333908</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3670968469721048</v>
+        <v>0.3676287829093147</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1707515627384086</v>
+        <v>0.1722479307276898</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1593658129749375</v>
+        <v>0.1595831688306892</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2892913513390057</v>
+        <v>0.2888696980627339</v>
       </c>
     </row>
     <row r="19">
@@ -1226,25 +1226,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01429504931363926</v>
+        <v>0.01652228988405672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1624722700228423</v>
+        <v>0.1614532366050791</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1098909448303863</v>
+        <v>0.1106122961408345</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2445146983790586</v>
+        <v>0.2451206633303934</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1309557552062602</v>
+        <v>0.1303012970255689</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08791029880035556</v>
+        <v>0.087462203492011</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1939789957275147</v>
+        <v>0.1952967079168614</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03147491838730777</v>
+        <v>0.0299657268255718</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02322496884272338</v>
+        <v>0.02672378481888374</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06253875035136401</v>
+        <v>0.06673280830851269</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2094506234963049</v>
+        <v>0.209947617870262</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1532566377468381</v>
+        <v>0.1530908345480863</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3025700281682987</v>
+        <v>0.2986994848944797</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1714368070405064</v>
+        <v>0.1689595442687521</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1226010563820895</v>
+        <v>0.1216623749437939</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2431637423897425</v>
+        <v>0.2442153932610812</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05768607581828028</v>
+        <v>0.0586612310664083</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0592791624024019</v>
+        <v>0.05924683910934553</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1176232579141806</v>
+        <v>0.1175155239896034</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1507214839304248</v>
+        <v>0.1510858975355341</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1182729013262117</v>
+        <v>0.1179216425268273</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2571618570082543</v>
+        <v>0.2576353977982164</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1076028944082615</v>
+        <v>0.1078634324530644</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09245929120328225</v>
+        <v>0.09188219624956032</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1912061552661901</v>
+        <v>0.1922839059688959</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07571545678538409</v>
+        <v>0.07670273601575692</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07562638400186489</v>
+        <v>0.07738791332199368</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1401968575834376</v>
+        <v>0.1410962695410193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1769577673449077</v>
+        <v>0.1770447396599816</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1420003631338252</v>
+        <v>0.1423853620142926</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2823595058466266</v>
+        <v>0.2826337264138036</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.123826880011091</v>
+        <v>0.1239998839805362</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1084551842921972</v>
+        <v>0.106494869103499</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2089166700752746</v>
+        <v>0.2097354668022303</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13121</v>
+        <v>12825</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15767</v>
+        <v>16038</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>36945</v>
+        <v>36565</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23495</v>
+        <v>24777</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17988</v>
+        <v>18125</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>83885</v>
+        <v>83992</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>41625</v>
+        <v>39902</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38605</v>
+        <v>38171</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>127484</v>
+        <v>124338</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30162</v>
+        <v>30965</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34918</v>
+        <v>36408</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>61599</v>
+        <v>62193</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>47166</v>
+        <v>48972</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>39393</v>
+        <v>38984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>116172</v>
+        <v>115027</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>70616</v>
+        <v>69556</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>66736</v>
+        <v>66324</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>168833</v>
+        <v>167947</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13086</v>
+        <v>13704</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10287</v>
+        <v>10435</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>36338</v>
+        <v>36005</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>30705</v>
+        <v>31713</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>28056</v>
+        <v>27863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>85769</v>
+        <v>84229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>49770</v>
+        <v>49579</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>41343</v>
+        <v>43594</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>126997</v>
+        <v>127771</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32498</v>
+        <v>33180</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28864</v>
+        <v>28460</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61250</v>
+        <v>61225</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>56130</v>
+        <v>58860</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>52665</v>
+        <v>53521</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>115263</v>
+        <v>116129</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>83114</v>
+        <v>84273</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>72275</v>
+        <v>74022</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>167348</v>
+        <v>167325</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>40389</v>
+        <v>39082</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25134</v>
+        <v>24987</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>53715</v>
+        <v>52344</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24320</v>
+        <v>25597</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>21856</v>
+        <v>21887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>49445</v>
+        <v>50447</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>70815</v>
+        <v>70691</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>51360</v>
+        <v>52521</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>110457</v>
+        <v>108287</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>70105</v>
+        <v>70317</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>47954</v>
+        <v>47852</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>83447</v>
+        <v>82217</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>47244</v>
+        <v>47038</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>42875</v>
+        <v>42582</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>70767</v>
+        <v>71818</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>109164</v>
+        <v>109091</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>82955</v>
+        <v>84476</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>146945</v>
+        <v>144867</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>80288</v>
+        <v>79847</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>69456</v>
+        <v>70010</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>155060</v>
+        <v>157517</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>84636</v>
+        <v>86835</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>76870</v>
+        <v>77620</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>186921</v>
+        <v>185475</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>176424</v>
+        <v>177051</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>156515</v>
+        <v>156575</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>357985</v>
+        <v>356819</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>118770</v>
+        <v>119027</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>104607</v>
+        <v>105516</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>204852</v>
+        <v>205666</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>124970</v>
+        <v>126160</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>114581</v>
+        <v>117082</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>230374</v>
+        <v>230757</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>231333</v>
+        <v>230346</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>207151</v>
+        <v>207232</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>426429</v>
+        <v>422308</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23497</v>
+        <v>23512</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48506</v>
+        <v>48700</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>76427</v>
+        <v>75100</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>134694</v>
+        <v>135917</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>109034</v>
+        <v>107675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>259402</v>
+        <v>260093</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>165140</v>
+        <v>168805</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>163877</v>
+        <v>165385</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>347585</v>
+        <v>350498</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47149</v>
+        <v>47313</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>79315</v>
+        <v>79528</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>110936</v>
+        <v>109759</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>180063</v>
+        <v>182338</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>148796</v>
+        <v>149435</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>305002</v>
+        <v>305444</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>217216</v>
+        <v>219120</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>216570</v>
+        <v>216866</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>404665</v>
+        <v>404075</v>
       </c>
     </row>
     <row r="24">
@@ -2345,25 +2345,25 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3391</v>
+        <v>3920</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>180239</v>
+        <v>179108</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>118905</v>
+        <v>119685</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>206439</v>
+        <v>206951</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>180226</v>
+        <v>179325</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>120364</v>
+        <v>119751</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>209790</v>
+        <v>211215</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8400</v>
+        <v>7997</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6669</v>
+        <v>7674</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14836</v>
+        <v>15831</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>232354</v>
+        <v>232906</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>165828</v>
+        <v>165648</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>255454</v>
+        <v>252186</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>235937</v>
+        <v>232528</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>167862</v>
+        <v>166576</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>262984</v>
+        <v>264121</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>197397</v>
+        <v>200733</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>200703</v>
+        <v>200593</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>404915</v>
+        <v>404544</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>535080</v>
+        <v>536374</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>417692</v>
+        <v>416452</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>934884</v>
+        <v>936606</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>750211</v>
+        <v>752028</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>639570</v>
+        <v>635578</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1353332</v>
+        <v>1360960</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>259091</v>
+        <v>262470</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>256050</v>
+        <v>262014</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>482624</v>
+        <v>485721</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>628222</v>
+        <v>628531</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>501488</v>
+        <v>502848</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1026488</v>
+        <v>1027485</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>863325</v>
+        <v>864532</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>750219</v>
+        <v>736659</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1478685</v>
+        <v>1484480</v>
       </c>
     </row>
     <row r="32">
